--- a/underlying data/bulletin URLs/Book1.xlsx
+++ b/underlying data/bulletin URLs/Book1.xlsx
@@ -573,8 +573,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C210B847F06EA04B901DDDD83FAA387F" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eaafa7fc66a01a91104c815240cb082b">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="988147b7-4568-43bb-89ee-dd0ffdebc3d8" xmlns:ns3="c04ecc24-b8d3-4bc2-8b0d-994853f782be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2d198050ca93e56f9eba2b9f2a348984" ns2:_="" ns3:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100C210B847F06EA04B901DDDD83FAA387F" ma:contentTypeVersion="17" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f08990eb8c02996d19c508318cc6c635">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="988147b7-4568-43bb-89ee-dd0ffdebc3d8" xmlns:ns3="c04ecc24-b8d3-4bc2-8b0d-994853f782be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e65636ec53d6217ff158d74ab0905866" ns2:_="" ns3:_="">
     <xsd:import namespace="988147b7-4568-43bb-89ee-dd0ffdebc3d8"/>
     <xsd:import namespace="c04ecc24-b8d3-4bc2-8b0d-994853f782be"/>
     <xsd:element name="properties">
@@ -598,6 +598,7 @@
                 <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -672,6 +673,11 @@
     <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="23" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSearchProperties" ma:index="24" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -836,7 +842,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4E2056E1-80FE-47AB-ABA8-3C2E27369CA9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8639081B-842D-4DF4-8AE7-A85F121EBFBE}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
